--- a/SPF_surveys_110321.xlsx
+++ b/SPF_surveys_110321.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="558">
   <si>
     <t>Survey</t>
   </si>
@@ -1808,9 +1808,6 @@
     <t>Sardinella brasiliensis</t>
   </si>
   <si>
-    <t>California Current</t>
-  </si>
-  <si>
     <t>Newfoundland-Labrador Shelf</t>
   </si>
   <si>
@@ -1919,8 +1916,13 @@
     <t>Kattegat</t>
   </si>
   <si>
-    <t xml:space="preserve">North Sea
-</t>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Baltic Sea</t>
   </si>
 </sst>
 </file>
@@ -5036,10 +5038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5053,74 +5055,92 @@
     <col min="7" max="7" width="27.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>549</v>
+      <c r="H1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>440</v>
+        <v>557</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>277</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>406</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>468</v>
       </c>
+      <c r="H2">
+        <v>19.863299999999999</v>
+      </c>
+      <c r="I2">
+        <v>58.488</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>440</v>
+        <v>557</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>266</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
+      </c>
+      <c r="H3">
+        <v>19.863299999999999</v>
+      </c>
+      <c r="I3">
+        <v>58.488</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>71</v>
       </c>
@@ -5128,20 +5148,26 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>476</v>
       </c>
+      <c r="H4">
+        <v>37.106400000000001</v>
+      </c>
+      <c r="I4">
+        <v>74.988399999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
@@ -5149,20 +5175,26 @@
         <v>394</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>468</v>
       </c>
+      <c r="H5">
+        <v>37.106400000000001</v>
+      </c>
+      <c r="I5">
+        <v>74.988399999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
@@ -5170,22 +5202,28 @@
         <v>398</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>420</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="H6">
+        <v>-3.1631999999999998</v>
+      </c>
+      <c r="I6">
+        <v>45.557000000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>454</v>
       </c>
@@ -5193,114 +5231,144 @@
         <v>460</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G7" s="4"/>
+      <c r="H7">
+        <v>-126</v>
+      </c>
+      <c r="I7">
+        <v>40</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>519</v>
+        <v>454</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>396</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>479</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
+      </c>
+      <c r="H8">
+        <v>-126</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>454</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>418</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="H9">
+        <v>-126</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>404</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>487</v>
       </c>
+      <c r="H10">
+        <v>-126</v>
+      </c>
+      <c r="I10">
+        <v>40</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>414</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="H11">
+        <v>-126</v>
+      </c>
+      <c r="I11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>414</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>478</v>
@@ -5308,52 +5376,70 @@
       <c r="G12" s="4" t="s">
         <v>473</v>
       </c>
+      <c r="H12">
+        <v>-126</v>
+      </c>
+      <c r="I12">
+        <v>40</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>414</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>478</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
+      </c>
+      <c r="H13">
+        <v>-126</v>
+      </c>
+      <c r="I13">
+        <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>414</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>412</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="H14">
+        <v>-126</v>
+      </c>
+      <c r="I14">
+        <v>40</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>443</v>
       </c>
@@ -5361,37 +5447,49 @@
         <v>398</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>467</v>
       </c>
+      <c r="H15">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I15">
+        <v>49.070500000000003</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>443</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="H16">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I16">
+        <v>49.070500000000003</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>443</v>
       </c>
@@ -5399,539 +5497,695 @@
         <v>398</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="7"/>
       <c r="F17" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>467</v>
       </c>
+      <c r="H17">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I17">
+        <v>49.070500000000003</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>443</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>286</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="H18">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I18">
+        <v>49.070500000000003</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>443</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>277</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>407</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="H19">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I19">
+        <v>49.070500000000003</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>433</v>
+    <row r="20" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>397</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>410</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>468</v>
       </c>
+      <c r="H20">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I20">
+        <v>49.070500000000003</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>433</v>
+    <row r="21" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>401</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="H21">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I21">
+        <v>49.070500000000003</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>433</v>
+    <row r="22" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>401</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>468</v>
       </c>
+      <c r="H22">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I22">
+        <v>49.070500000000003</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>433</v>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>468</v>
       </c>
+      <c r="H23">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I23">
+        <v>49.070500000000003</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>433</v>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="H24">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I24">
+        <v>49.070500000000003</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>433</v>
+    <row r="25" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>398</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>420</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="H25">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I25">
+        <v>49.070500000000003</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="H26">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="I26">
+        <v>50.134700000000002</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>408</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>476</v>
       </c>
+      <c r="H27">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="I27">
+        <v>50.134700000000002</v>
+      </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G28" s="4"/>
+      <c r="H28">
+        <v>-176.1395</v>
+      </c>
+      <c r="I28">
+        <v>56.907299999999999</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G29" s="4"/>
+      <c r="H29">
+        <v>-176.1395</v>
+      </c>
+      <c r="I29">
+        <v>56.907299999999999</v>
+      </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="H30">
+        <v>-176.1395</v>
+      </c>
+      <c r="I30">
+        <v>56.907299999999999</v>
+      </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>327</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G31" s="4"/>
+      <c r="H31">
+        <v>-144</v>
+      </c>
+      <c r="I31">
+        <v>57</v>
+      </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>327</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G32" s="4"/>
+      <c r="H32">
+        <v>-144</v>
+      </c>
+      <c r="I32">
+        <v>57</v>
+      </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>327</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G33" s="4"/>
+      <c r="H33">
+        <v>-144</v>
+      </c>
+      <c r="I33">
+        <v>57</v>
+      </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>327</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="H34">
+        <v>-144</v>
+      </c>
+      <c r="I34">
+        <v>57</v>
+      </c>
     </row>
-    <row r="35" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>491</v>
+        <v>327</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>414</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>412</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="H35">
+        <v>-144</v>
+      </c>
+      <c r="I35">
+        <v>57</v>
+      </c>
     </row>
-    <row r="36" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>491</v>
+        <v>327</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>400</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>294</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="H36">
+        <v>-144</v>
+      </c>
+      <c r="I36">
+        <v>57</v>
+      </c>
     </row>
-    <row r="37" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>398</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>420</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="H37">
+        <v>-12.0876</v>
+      </c>
+      <c r="I37">
+        <v>40.482999999999997</v>
+      </c>
     </row>
-    <row r="38" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>42</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="H38">
+        <v>11.3004</v>
+      </c>
+      <c r="I38">
+        <v>56.951999999999998</v>
+      </c>
     </row>
-    <row r="39" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>408</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>476</v>
       </c>
+      <c r="H39">
+        <v>11.3004</v>
+      </c>
+      <c r="I39">
+        <v>56.951999999999998</v>
+      </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="H40">
+        <v>-50</v>
+      </c>
+      <c r="I40">
+        <v>51</v>
+      </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G41" s="19" t="s">
         <v>466</v>
       </c>
+      <c r="H41">
+        <v>-50</v>
+      </c>
+      <c r="I41">
+        <v>51</v>
+      </c>
     </row>
-    <row r="42" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>438</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>277</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>468</v>
       </c>
+      <c r="H42">
+        <v>3.5156000000000001</v>
+      </c>
+      <c r="I42">
+        <v>56.511000000000003</v>
+      </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>438</v>
       </c>
@@ -5939,20 +6193,26 @@
         <v>3</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="H43">
+        <v>3.5156000000000001</v>
+      </c>
+      <c r="I43">
+        <v>56.511000000000003</v>
+      </c>
     </row>
-    <row r="44" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>438</v>
       </c>
@@ -5960,22 +6220,28 @@
         <v>3</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>42</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="H44">
+        <v>3.5156000000000001</v>
+      </c>
+      <c r="I44">
+        <v>56.511000000000003</v>
+      </c>
     </row>
-    <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>438</v>
       </c>
@@ -5983,66 +6249,84 @@
         <v>3</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>408</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>476</v>
       </c>
+      <c r="H45">
+        <v>3.5156000000000001</v>
+      </c>
+      <c r="I45">
+        <v>56.511000000000003</v>
+      </c>
     </row>
-    <row r="46" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>556</v>
+        <v>438</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>277</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>407</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="H46">
+        <v>3.5156000000000001</v>
+      </c>
+      <c r="I46">
+        <v>56.511000000000003</v>
+      </c>
     </row>
-    <row r="47" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D47" s="31"/>
       <c r="E47" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
+      </c>
+      <c r="H47">
+        <v>3.5156000000000001</v>
+      </c>
+      <c r="I47">
+        <v>56.511000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>325</v>
       </c>
@@ -6050,18 +6334,24 @@
         <v>395</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D48" s="31"/>
       <c r="E48" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>266</v>
       </c>
       <c r="G48" s="6"/>
+      <c r="H48">
+        <v>-70</v>
+      </c>
+      <c r="I48">
+        <v>40</v>
+      </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>325</v>
       </c>
@@ -6069,18 +6359,26 @@
         <v>3</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="G49" s="4"/>
+        <v>531</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49">
+        <v>-70</v>
+      </c>
+      <c r="I49">
+        <v>40</v>
+      </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>495</v>
       </c>
@@ -6088,167 +6386,215 @@
         <v>3</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="H50">
+        <v>12</v>
+      </c>
+      <c r="I50">
+        <v>69</v>
+      </c>
     </row>
-    <row r="51" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>277</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G51" s="4"/>
+      <c r="H51">
+        <v>12</v>
+      </c>
+      <c r="I51">
+        <v>69</v>
+      </c>
     </row>
-    <row r="52" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="H52">
+        <v>12</v>
+      </c>
+      <c r="I52">
+        <v>69</v>
+      </c>
     </row>
-    <row r="53" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="H53">
+        <v>12</v>
+      </c>
+      <c r="I53">
+        <v>69</v>
+      </c>
     </row>
-    <row r="54" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>476</v>
       </c>
+      <c r="H54">
+        <v>12</v>
+      </c>
+      <c r="I54">
+        <v>69</v>
+      </c>
     </row>
-    <row r="55" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>42</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="H55">
+        <v>9.9314999999999998</v>
+      </c>
+      <c r="I55">
+        <v>58.3523</v>
+      </c>
     </row>
-    <row r="56" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B56" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>408</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>476</v>
       </c>
+      <c r="H56">
+        <v>9.9314999999999998</v>
+      </c>
+      <c r="I56">
+        <v>58.3523</v>
+      </c>
     </row>
-    <row r="57" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>395</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D57" s="31"/>
       <c r="E57" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>266</v>
       </c>
       <c r="G57" s="6"/>
+      <c r="H57">
+        <v>-76</v>
+      </c>
+      <c r="I57">
+        <v>30</v>
+      </c>
     </row>
-    <row r="58" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="s">
         <v>510</v>
       </c>
@@ -6256,63 +6602,81 @@
         <v>512</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D58" s="39"/>
       <c r="E58" s="38" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>487</v>
       </c>
+      <c r="H58">
+        <v>155</v>
+      </c>
+      <c r="I58">
+        <v>-35</v>
+      </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>295</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>371</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G59" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="H59">
+        <v>-45</v>
+      </c>
+      <c r="I59">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
         <v>530</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>531</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>295</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>371</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="H60">
+        <v>-45</v>
+      </c>
+      <c r="I60">
+        <v>-30</v>
       </c>
     </row>
   </sheetData>
@@ -25010,12 +25374,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25191,21 +25558,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E59FF985-1183-4834-8086-C77161FBE6F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{006CA9B9-CD5F-42FA-AEB9-AB45473197E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25229,17 +25601,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{006CA9B9-CD5F-42FA-AEB9-AB45473197E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E59FF985-1183-4834-8086-C77161FBE6F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPF_surveys_110321.xlsx
+++ b/SPF_surveys_110321.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rooperc\Desktop\PICES\ICES-PICES Small Pelagics\Activity 6\ICES_PICES_WGSPF_SurveyDatabase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rooperc\Desktop\PICES\ICES-PICES Small Pelagics\Activity 6 - Summaries and background\ICES_PICES_WGSPF_SurveyDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25596" yWindow="960" windowWidth="25596" windowHeight="14400" activeTab="1"/>
+    <workbookView xWindow="25590" yWindow="960" windowWidth="25590" windowHeight="14400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Surveys" sheetId="1" r:id="rId1"/>
-    <sheet name="SurveysData" sheetId="3" r:id="rId2"/>
-    <sheet name="SPF species" sheetId="2" r:id="rId3"/>
+    <sheet name="SPF species" sheetId="2" r:id="rId2"/>
+    <sheet name="SurveysData" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Surveys!$A$1:$T$46</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="610">
   <si>
     <t>Survey</t>
   </si>
@@ -1808,130 +1808,322 @@
     <t>Sardinella brasiliensis</t>
   </si>
   <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>trawls</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>juvenile</t>
+  </si>
+  <si>
+    <t>Thaleichtys pacificus</t>
+  </si>
+  <si>
+    <t>plankton nets</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>biennial</t>
+  </si>
+  <si>
+    <t>Salmonidae Osmeridae</t>
+  </si>
+  <si>
+    <t>Mallotus catervarius</t>
+  </si>
+  <si>
+    <t>acoustics, seines</t>
+  </si>
+  <si>
+    <t>Ammodytes personatus Mallotus catervarius</t>
+  </si>
+  <si>
+    <t>juvenile, adult</t>
+  </si>
+  <si>
+    <t>acoustics, trawls</t>
+  </si>
+  <si>
+    <t>Osmeridea Gadidae</t>
+  </si>
+  <si>
+    <t>Ammodytes personatus Mallotus catervarius Clupea pallasii Gadus chalcogrammus</t>
+  </si>
+  <si>
+    <t>Gadus chalcogrammus</t>
+  </si>
+  <si>
+    <t>eastern Bering Sea</t>
+  </si>
+  <si>
+    <t>Clupea pallasii Thaleichthys pacificus</t>
+  </si>
+  <si>
+    <t>Sebastes Osmeridae</t>
+  </si>
+  <si>
+    <t>Clupea pallasii Salmonidae</t>
+  </si>
+  <si>
+    <t>summer, autumn</t>
+  </si>
+  <si>
+    <t>egg, adult</t>
+  </si>
+  <si>
+    <t>Southwestern Australian Shelf</t>
+  </si>
+  <si>
+    <t>egg, larval, adult</t>
+  </si>
+  <si>
+    <t>Southeast U.S. Continental Shelf</t>
+  </si>
+  <si>
+    <t>Sardina pilchardus, _x000D_
+Sprattus sprattus</t>
+  </si>
+  <si>
+    <t>Skagerrak</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>larval</t>
+  </si>
+  <si>
+    <t>autumn, winter</t>
+  </si>
+  <si>
+    <t>seine</t>
+  </si>
+  <si>
     <t>Newfoundland-Labrador Shelf</t>
   </si>
   <si>
-    <t>plankton nets</t>
+    <t>Kattegat</t>
+  </si>
+  <si>
+    <t>Iberian Coastal</t>
+  </si>
+  <si>
+    <t>egg, juvenile, adult</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>larval, juvenile</t>
   </si>
   <si>
     <t>acoustics, trawls, plankton nets</t>
   </si>
   <si>
-    <t>acoustics, trawls</t>
-  </si>
-  <si>
-    <t>trawls</t>
-  </si>
-  <si>
-    <t>seine</t>
-  </si>
-  <si>
-    <t>acoustics, seines</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
-    <t>autumn, winter</t>
+    <t>egg, larval</t>
   </si>
   <si>
     <t>winter, spring</t>
   </si>
   <si>
-    <t>summer, autumn</t>
-  </si>
-  <si>
-    <t>Southwestern Australian Shelf</t>
-  </si>
-  <si>
-    <t>annual</t>
-  </si>
-  <si>
-    <t>biennial</t>
-  </si>
-  <si>
-    <t>egg, adult</t>
-  </si>
-  <si>
-    <t>juvenile, adult</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>larval</t>
-  </si>
-  <si>
-    <t>juvenile</t>
-  </si>
-  <si>
-    <t>egg, larval, adult</t>
-  </si>
-  <si>
-    <t>egg, juvenile, adult</t>
-  </si>
-  <si>
-    <t>egg, larval</t>
-  </si>
-  <si>
-    <t>larval, juvenile</t>
+    <t>Baltic Sea</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>Gear</t>
+  </si>
+  <si>
+    <t>Other_SPF</t>
+  </si>
+  <si>
+    <t>Life_history_stages</t>
+  </si>
+  <si>
+    <t>Target_species</t>
   </si>
   <si>
     <t>Ecoregion</t>
   </si>
   <si>
-    <t>Target_species</t>
-  </si>
-  <si>
-    <t>Life_history_stages</t>
-  </si>
-  <si>
-    <t>Other_SPF</t>
-  </si>
-  <si>
-    <t>Gear</t>
-  </si>
-  <si>
-    <t>Timing</t>
-  </si>
-  <si>
-    <t>Season</t>
-  </si>
-  <si>
-    <t>Iberian Coastal</t>
-  </si>
-  <si>
-    <t>eastern Bering Sea</t>
-  </si>
-  <si>
-    <t>Southeast U.S. Continental Shelf</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>Skagerrak</t>
-  </si>
-  <si>
-    <t>Kattegat</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Baltic Sea</t>
+    <t>Iberian -Bay of Biscay</t>
+  </si>
+  <si>
+    <t>Engraulis encrasicolus Sardina pilchardus Scomber colias Scomber scombrus Trachurus trachurus Trachurus mediterraneus Trachurus picturatus Boops boops</t>
+  </si>
+  <si>
+    <t>Capros aper Macroramphosus scolopax Maurolicus muelleri Sardinella aurita Aphia minuta</t>
+  </si>
+  <si>
+    <t>Sardinella Engraulis Sardina</t>
+  </si>
+  <si>
+    <t>Stolephorus indicus Sillago ingenuua Rastrelliger kanagurta Photopectoralis bindus Leiognathus dussumieri Equulites elongates Amblygaster sirm Auxis thazard Decapterus macrosoma Encrasicholina devisi</t>
+  </si>
+  <si>
+    <t>spring, summer, winter, fall</t>
+  </si>
+  <si>
+    <t>acoustics, eDNA</t>
+  </si>
+  <si>
+    <t>South Atlantic</t>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+  </si>
+  <si>
+    <t>Kuroshio/Oyashio area</t>
+  </si>
+  <si>
+    <t>Scomber japonicus Scomber australasicus Cololabis saira Trachurus symmetricus Engraulis japonicus Sardinops melanostictus</t>
+  </si>
+  <si>
+    <t>egg, larval, juvenile, adult</t>
+  </si>
+  <si>
+    <t>spring, fall</t>
+  </si>
+  <si>
+    <t>Salmonidae</t>
+  </si>
+  <si>
+    <t>Osmeridea Gadidae Engraulis</t>
+  </si>
+  <si>
+    <t>trawls, seine</t>
+  </si>
+  <si>
+    <t>Clupea harengus_x000D_ Sprattus sprattus</t>
+  </si>
+  <si>
+    <t>Sardina pilchardus_x000D_ Engraulis encrasicolus</t>
+  </si>
+  <si>
+    <t>Sardina pilchardus_x000D_ Engraulis encrasicolus_x000D_ Sprattus sprattus_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sardinops sagax_x000D_ Engraulis mordax </t>
+  </si>
+  <si>
+    <t>Clupea pallasi_x000D_</t>
+  </si>
+  <si>
+    <t>Engraulis mordax_x000D_ Clupea pallasii</t>
+  </si>
+  <si>
+    <t>Sardinops sagax_x000D_ Engraulis mordax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clupea harengus_x000D_ Engraulis encrasicolus </t>
+  </si>
+  <si>
+    <t>Sardina pilchardus_x000D_ Sprattus sprattus</t>
+  </si>
+  <si>
+    <t>Clupea harengus_x000D_ Sprattus sprattus_x000D_ Sardina pilchardus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sardina pilchardus_x000D_ Engraulis encrasicolus_x000D_ Sprattus sprattus_x000D_ Alosa sp.  </t>
+  </si>
+  <si>
+    <t>Sardina pilchardus_x000D_ Engraulis encrasicolus_x000D_</t>
+  </si>
+  <si>
+    <t>Clupea pallasii_x000D_ Sardinops sagax_x000D_ Alosa sp.</t>
+  </si>
+  <si>
+    <t>Sardina pilchardus, Sprattus sprattus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clupea pallasi_x000D_ Sardinops sagax </t>
+  </si>
+  <si>
+    <t>Sardina pilchardus_x000D_ Engraulis encrasicolus_x000D_ Sprattus sprattus_x000D_ Alosa sp.</t>
+  </si>
+  <si>
+    <t>Sardina pilchardus Sprattus sprattus</t>
+  </si>
+  <si>
+    <t>Brevoortia tyrannus_x000D_ Anchoa mitchilli _x000D_Anchoa hepsetus</t>
+  </si>
+  <si>
+    <t>Brevoortia tyrannus_x000D_ Anchoa mitchilli_x000D_ Anchoa hepsetus</t>
+  </si>
+  <si>
+    <t>Sardinella brasiliensis_x000D_ Engraulis anchoita</t>
+  </si>
+  <si>
+    <t>trawls, acoustics, plankton nets</t>
+  </si>
+  <si>
+    <t>acoustics, seine</t>
+  </si>
+  <si>
+    <t>Gulf of St Lawrence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2069,23 +2261,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2094,22 +2287,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2121,10 +2314,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2136,66 +2329,77 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2510,32 +2714,32 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.296875" customWidth="1"/>
+    <col min="1" max="1" width="75.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.25" customWidth="1"/>
     <col min="3" max="6" width="31.5" customWidth="1"/>
     <col min="7" max="8" width="27.5" customWidth="1"/>
-    <col min="9" max="9" width="27.19921875" customWidth="1"/>
-    <col min="10" max="10" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="21.19921875" customWidth="1"/>
-    <col min="13" max="13" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.25" customWidth="1"/>
+    <col min="10" max="10" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.25" customWidth="1"/>
+    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.69921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.796875" customWidth="1"/>
-    <col min="17" max="17" width="51.69921875" customWidth="1"/>
+    <col min="15" max="15" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.75" customWidth="1"/>
+    <col min="17" max="17" width="51.75" customWidth="1"/>
     <col min="18" max="18" width="35.5" customWidth="1"/>
     <col min="19" max="19" width="55" customWidth="1"/>
-    <col min="20" max="20" width="15.796875" customWidth="1"/>
+    <col min="20" max="20" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2597,7 +2801,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>215</v>
       </c>
@@ -2654,7 +2858,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="6" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="6" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>225</v>
       </c>
@@ -2709,7 +2913,7 @@
       </c>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:20" s="6" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="6" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>255</v>
       </c>
@@ -2766,7 +2970,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="6" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>93</v>
       </c>
@@ -2814,7 +3018,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" s="6" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="6" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2863,7 +3067,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="6" customFormat="1" ht="280.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="6" customFormat="1" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
@@ -2920,7 +3124,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="6" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="6" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>156</v>
       </c>
@@ -2979,7 +3183,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="6" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="6" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -3029,7 +3233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="6" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="6" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>271</v>
       </c>
@@ -3086,7 +3290,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>68</v>
       </c>
@@ -3124,7 +3328,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="4" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>481</v>
       </c>
@@ -3178,7 +3382,7 @@
       </c>
       <c r="T12" s="7"/>
     </row>
-    <row r="13" spans="1:20" s="4" customFormat="1" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>133</v>
       </c>
@@ -3232,7 +3436,7 @@
       </c>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" spans="1:20" s="4" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>206</v>
       </c>
@@ -3294,7 +3498,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="4" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>351</v>
       </c>
@@ -3348,7 +3552,7 @@
       </c>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="1:20" s="4" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>353</v>
       </c>
@@ -3403,7 +3607,7 @@
       </c>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="1:20" s="4" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>352</v>
       </c>
@@ -3453,7 +3657,7 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="1:20" s="4" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="4" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>83</v>
       </c>
@@ -3499,7 +3703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="4" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="4" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>78</v>
       </c>
@@ -3549,7 +3753,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>354</v>
       </c>
@@ -3601,7 +3805,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>232</v>
       </c>
@@ -3658,7 +3862,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>254</v>
       </c>
@@ -3715,7 +3919,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="6" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>247</v>
       </c>
@@ -3772,7 +3976,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="6" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>242</v>
       </c>
@@ -3826,7 +4030,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="6" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>138</v>
       </c>
@@ -3886,7 +4090,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="6" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" s="6" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>166</v>
       </c>
@@ -3948,7 +4152,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>157</v>
       </c>
@@ -4006,7 +4210,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="21" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" s="21" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>175</v>
       </c>
@@ -4066,7 +4270,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>98</v>
       </c>
@@ -4114,7 +4318,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="6" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>109</v>
       </c>
@@ -4156,7 +4360,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="7" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>117</v>
       </c>
@@ -4198,7 +4402,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>112</v>
       </c>
@@ -4240,7 +4444,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>120</v>
       </c>
@@ -4272,7 +4476,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="6" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>114</v>
       </c>
@@ -4318,7 +4522,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="6" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" s="6" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>355</v>
       </c>
@@ -4372,7 +4576,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>52</v>
       </c>
@@ -4425,7 +4629,7 @@
       </c>
       <c r="T36" s="4"/>
     </row>
-    <row r="37" spans="1:20" s="6" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" s="6" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>33</v>
       </c>
@@ -4483,7 +4687,7 @@
       </c>
       <c r="T37" s="4"/>
     </row>
-    <row r="38" spans="1:20" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>91</v>
       </c>
@@ -4529,7 +4733,7 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
     </row>
-    <row r="39" spans="1:20" s="6" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" s="6" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
@@ -4585,7 +4789,7 @@
       </c>
       <c r="T39" s="4"/>
     </row>
-    <row r="40" spans="1:20" s="6" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" s="6" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>262</v>
       </c>
@@ -4643,7 +4847,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="6" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>62</v>
       </c>
@@ -4693,7 +4897,7 @@
       </c>
       <c r="T41" s="4"/>
     </row>
-    <row r="42" spans="1:20" s="6" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>348</v>
       </c>
@@ -4750,7 +4954,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="6" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>349</v>
       </c>
@@ -4800,7 +5004,7 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
     </row>
-    <row r="44" spans="1:20" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>123</v>
       </c>
@@ -4844,7 +5048,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="6" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>96</v>
       </c>
@@ -4892,7 +5096,7 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
     </row>
-    <row r="46" spans="1:20" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>357</v>
       </c>
@@ -4950,7 +5154,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
         <v>501</v>
       </c>
@@ -5038,1680 +5242,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="27.19921875" customWidth="1"/>
-    <col min="4" max="4" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.19921875" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.69921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="H2">
-        <v>19.863299999999999</v>
-      </c>
-      <c r="I2">
-        <v>58.488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="H3">
-        <v>19.863299999999999</v>
-      </c>
-      <c r="I3">
-        <v>58.488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="H4">
-        <v>37.106400000000001</v>
-      </c>
-      <c r="I4">
-        <v>74.988399999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="H5">
-        <v>37.106400000000001</v>
-      </c>
-      <c r="I5">
-        <v>74.988399999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H6">
-        <v>-3.1631999999999998</v>
-      </c>
-      <c r="I6">
-        <v>45.557000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7">
-        <v>-126</v>
-      </c>
-      <c r="I7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="H8">
-        <v>-126</v>
-      </c>
-      <c r="I8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9">
-        <v>-126</v>
-      </c>
-      <c r="I9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="H10">
-        <v>-126</v>
-      </c>
-      <c r="I10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11">
-        <v>-126</v>
-      </c>
-      <c r="I11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="H12">
-        <v>-126</v>
-      </c>
-      <c r="I12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="H13">
-        <v>-126</v>
-      </c>
-      <c r="I13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14">
-        <v>-126</v>
-      </c>
-      <c r="I14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>398</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="H15">
-        <v>-8.2502999999999993</v>
-      </c>
-      <c r="I15">
-        <v>49.070500000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H16">
-        <v>-8.2502999999999993</v>
-      </c>
-      <c r="I16">
-        <v>49.070500000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="H17">
-        <v>-8.2502999999999993</v>
-      </c>
-      <c r="I17">
-        <v>49.070500000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18">
-        <v>-8.2502999999999993</v>
-      </c>
-      <c r="I18">
-        <v>49.070500000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19">
-        <v>-8.2502999999999993</v>
-      </c>
-      <c r="I19">
-        <v>49.070500000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="H20">
-        <v>-8.2502999999999993</v>
-      </c>
-      <c r="I20">
-        <v>49.070500000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H21">
-        <v>-8.2502999999999993</v>
-      </c>
-      <c r="I21">
-        <v>49.070500000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="H22">
-        <v>-8.2502999999999993</v>
-      </c>
-      <c r="I22">
-        <v>49.070500000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="H23">
-        <v>-8.2502999999999993</v>
-      </c>
-      <c r="I23">
-        <v>49.070500000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H24">
-        <v>-8.2502999999999993</v>
-      </c>
-      <c r="I24">
-        <v>49.070500000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H25">
-        <v>-8.2502999999999993</v>
-      </c>
-      <c r="I25">
-        <v>49.070500000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H26">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="I26">
-        <v>50.134700000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="H27">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="I27">
-        <v>50.134700000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28">
-        <v>-176.1395</v>
-      </c>
-      <c r="I28">
-        <v>56.907299999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29">
-        <v>-176.1395</v>
-      </c>
-      <c r="I29">
-        <v>56.907299999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H30">
-        <v>-176.1395</v>
-      </c>
-      <c r="I30">
-        <v>56.907299999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31">
-        <v>-144</v>
-      </c>
-      <c r="I31">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32">
-        <v>-144</v>
-      </c>
-      <c r="I32">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33">
-        <v>-144</v>
-      </c>
-      <c r="I33">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H34">
-        <v>-144</v>
-      </c>
-      <c r="I34">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35">
-        <v>-144</v>
-      </c>
-      <c r="I35">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H36">
-        <v>-144</v>
-      </c>
-      <c r="I36">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H37">
-        <v>-12.0876</v>
-      </c>
-      <c r="I37">
-        <v>40.482999999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H38">
-        <v>11.3004</v>
-      </c>
-      <c r="I38">
-        <v>56.951999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="H39">
-        <v>11.3004</v>
-      </c>
-      <c r="I39">
-        <v>56.951999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H40">
-        <v>-50</v>
-      </c>
-      <c r="I40">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="H41">
-        <v>-50</v>
-      </c>
-      <c r="I41">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="H42">
-        <v>3.5156000000000001</v>
-      </c>
-      <c r="I42">
-        <v>56.511000000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H43">
-        <v>3.5156000000000001</v>
-      </c>
-      <c r="I43">
-        <v>56.511000000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H44">
-        <v>3.5156000000000001</v>
-      </c>
-      <c r="I44">
-        <v>56.511000000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="H45">
-        <v>3.5156000000000001</v>
-      </c>
-      <c r="I45">
-        <v>56.511000000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H46">
-        <v>3.5156000000000001</v>
-      </c>
-      <c r="I46">
-        <v>56.511000000000003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="H47">
-        <v>3.5156000000000001</v>
-      </c>
-      <c r="I47">
-        <v>56.511000000000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48">
-        <v>-70</v>
-      </c>
-      <c r="I48">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H49">
-        <v>-70</v>
-      </c>
-      <c r="I49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H50">
-        <v>12</v>
-      </c>
-      <c r="I50">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51">
-        <v>12</v>
-      </c>
-      <c r="I51">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H52">
-        <v>12</v>
-      </c>
-      <c r="I52">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H53">
-        <v>12</v>
-      </c>
-      <c r="I53">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="H54">
-        <v>12</v>
-      </c>
-      <c r="I54">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H55">
-        <v>9.9314999999999998</v>
-      </c>
-      <c r="I55">
-        <v>58.3523</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="H56">
-        <v>9.9314999999999998</v>
-      </c>
-      <c r="I56">
-        <v>58.3523</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G57" s="6"/>
-      <c r="H57">
-        <v>-76</v>
-      </c>
-      <c r="I57">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="B58" s="39" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="D58" s="39"/>
-      <c r="E58" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="F58" s="38" t="s">
-        <v>531</v>
-      </c>
-      <c r="G58" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="H58">
-        <v>155</v>
-      </c>
-      <c r="I58">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="H59">
-        <v>-45</v>
-      </c>
-      <c r="I59">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="H60">
-        <v>-45</v>
-      </c>
-      <c r="I60">
-        <v>-30</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:G60">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:XFD90"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.19921875" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.5" customWidth="1"/>
-    <col min="7" max="7" width="75.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="16384" width="11.19921875" style="3"/>
+    <col min="9" max="16384" width="11.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>284</v>
       </c>
@@ -6737,7 +5290,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>292</v>
       </c>
@@ -6763,7 +5316,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>291</v>
       </c>
@@ -6789,7 +5342,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>293</v>
       </c>
@@ -6813,7 +5366,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>217</v>
       </c>
@@ -6837,7 +5390,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
@@ -6863,7 +5416,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="7" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>3</v>
       </c>
@@ -6889,7 +5442,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>3</v>
       </c>
@@ -6915,7 +5468,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>3</v>
       </c>
@@ -6941,7 +5494,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>3</v>
       </c>
@@ -6967,7 +5520,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>3</v>
       </c>
@@ -6993,7 +5546,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>3</v>
       </c>
@@ -7019,7 +5572,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>3</v>
       </c>
@@ -7043,7 +5596,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>3</v>
       </c>
@@ -7069,7 +5622,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>3</v>
       </c>
@@ -7093,7 +5646,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>3</v>
       </c>
@@ -7119,7 +5672,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>3</v>
       </c>
@@ -7143,7 +5696,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>3</v>
       </c>
@@ -7169,7 +5722,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>3</v>
       </c>
@@ -7195,7 +5748,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>3</v>
       </c>
@@ -7219,7 +5772,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>3</v>
       </c>
@@ -7245,7 +5798,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>3</v>
       </c>
@@ -7271,7 +5824,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>3</v>
       </c>
@@ -7295,7 +5848,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>3</v>
       </c>
@@ -7319,7 +5872,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>3</v>
       </c>
@@ -7343,7 +5896,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" s="20" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>3</v>
       </c>
@@ -7367,7 +5920,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" s="20" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>3</v>
       </c>
@@ -7393,7 +5946,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="20" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>3</v>
       </c>
@@ -7419,7 +5972,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>3</v>
       </c>
@@ -7445,7 +5998,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>3</v>
       </c>
@@ -7471,7 +6024,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="20" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>3</v>
       </c>
@@ -7497,7 +6050,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>303</v>
       </c>
@@ -7523,7 +6076,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>303</v>
       </c>
@@ -7549,7 +6102,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="20" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>303</v>
       </c>
@@ -7575,7 +6128,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>303</v>
       </c>
@@ -7601,7 +6154,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="20" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>303</v>
       </c>
@@ -7627,7 +6180,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>303</v>
       </c>
@@ -7653,7 +6206,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>516</v>
       </c>
@@ -7679,7 +6232,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>371</v>
       </c>
@@ -7705,7 +6258,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>289</v>
       </c>
@@ -7731,7 +6284,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
         <v>289</v>
       </c>
@@ -7757,7 +6310,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>289</v>
       </c>
@@ -7783,7 +6336,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>289</v>
       </c>
@@ -7809,7 +6362,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>289</v>
       </c>
@@ -7835,7 +6388,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="7" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="7" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>289</v>
       </c>
@@ -7861,7 +6414,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>289</v>
       </c>
@@ -7887,7 +6440,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>289</v>
       </c>
@@ -7913,7 +6466,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>294</v>
       </c>
@@ -7939,7 +6492,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="7" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="7" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>294</v>
       </c>
@@ -7965,7 +6518,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>294</v>
       </c>
@@ -7991,7 +6544,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>294</v>
       </c>
@@ -8017,7 +6570,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="9" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>294</v>
       </c>
@@ -8043,7 +6596,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="9" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>294</v>
       </c>
@@ -8069,7 +6622,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="20" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>294</v>
       </c>
@@ -8095,7 +6648,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="20" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
         <v>287</v>
       </c>
@@ -8121,7 +6674,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>287</v>
       </c>
@@ -8147,7 +6700,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>287</v>
       </c>
@@ -8173,7 +6726,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>287</v>
       </c>
@@ -8199,7 +6752,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>287</v>
       </c>
@@ -8225,7 +6778,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
         <v>287</v>
       </c>
@@ -8251,7 +6804,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>287</v>
       </c>
@@ -8277,7 +6830,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>287</v>
       </c>
@@ -8303,7 +6856,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
         <v>287</v>
       </c>
@@ -8329,7 +6882,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="7" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>287</v>
       </c>
@@ -8353,7 +6906,7 @@
       </c>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:16384" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16384" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
         <v>287</v>
       </c>
@@ -8379,7 +6932,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:16384" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16384" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
         <v>287</v>
       </c>
@@ -8403,7 +6956,7 @@
       </c>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="40" t="s">
         <v>518</v>
       </c>
@@ -24805,7 +23358,7 @@
       <c r="XFC67" s="41"/>
       <c r="XFD67" s="40"/>
     </row>
-    <row r="68" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
         <v>295</v>
       </c>
@@ -24831,7 +23384,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="69" spans="1:16384" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16384" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
         <v>295</v>
       </c>
@@ -24857,7 +23410,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:16384" s="7" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16384" s="7" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>295</v>
       </c>
@@ -24883,7 +23436,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:16384" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16384" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>295</v>
       </c>
@@ -24909,7 +23462,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:16384" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16384" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A72" s="33" t="s">
         <v>295</v>
       </c>
@@ -24935,7 +23488,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:16384" s="7" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16384" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
         <v>295</v>
       </c>
@@ -24961,7 +23514,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:16384" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16384" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>295</v>
       </c>
@@ -24987,7 +23540,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="75" spans="1:16384" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16384" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
         <v>295</v>
       </c>
@@ -25013,7 +23566,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="1:16384" s="7" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16384" s="7" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
         <v>286</v>
       </c>
@@ -25039,7 +23592,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="77" spans="1:16384" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16384" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
         <v>286</v>
       </c>
@@ -25065,7 +23618,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:16384" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16384" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
         <v>286</v>
       </c>
@@ -25091,7 +23644,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:16384" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16384" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
         <v>286</v>
       </c>
@@ -25117,7 +23670,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="80" spans="1:16384" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16384" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
         <v>286</v>
       </c>
@@ -25143,7 +23696,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
         <v>286</v>
       </c>
@@ -25169,7 +23722,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
         <v>286</v>
       </c>
@@ -25195,7 +23748,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
         <v>286</v>
       </c>
@@ -25219,7 +23772,7 @@
       </c>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
         <v>286</v>
       </c>
@@ -25245,7 +23798,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
         <v>286</v>
       </c>
@@ -25271,7 +23824,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
         <v>286</v>
       </c>
@@ -25295,7 +23848,7 @@
       </c>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" s="7" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
         <v>286</v>
       </c>
@@ -25319,7 +23872,7 @@
       </c>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
         <v>286</v>
       </c>
@@ -25343,7 +23896,7 @@
       </c>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="31"/>
       <c r="B89" s="6"/>
       <c r="C89" s="4"/>
@@ -25353,7 +23906,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="31"/>
       <c r="B90" s="6"/>
       <c r="C90" s="4"/>
@@ -25373,6 +23926,2277 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I79" sqref="I79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65" style="42" customWidth="1"/>
+    <col min="5" max="5" width="34.25" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>567</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>561</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>587</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="H2" s="42">
+        <v>19.863299999999999</v>
+      </c>
+      <c r="I2" s="42">
+        <v>58.488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="H3" s="42">
+        <v>19.863299999999999</v>
+      </c>
+      <c r="I3" s="42">
+        <v>58.488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="H4" s="42">
+        <v>37.106400000000001</v>
+      </c>
+      <c r="I4" s="42">
+        <v>74.988399999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="H5" s="42">
+        <v>37.106400000000001</v>
+      </c>
+      <c r="I5" s="42">
+        <v>74.988399999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>541</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H6" s="42">
+        <v>-3.1631999999999998</v>
+      </c>
+      <c r="I6" s="42">
+        <v>45.557000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>541</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="H7" s="42">
+        <v>-126</v>
+      </c>
+      <c r="I7" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>559</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>479</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>558</v>
+      </c>
+      <c r="H8" s="42">
+        <v>-126</v>
+      </c>
+      <c r="I8" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>599</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="42">
+        <v>-126</v>
+      </c>
+      <c r="I9" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>592</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="H10" s="42">
+        <v>-126</v>
+      </c>
+      <c r="I10" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="42">
+        <v>-126</v>
+      </c>
+      <c r="I11" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>473</v>
+      </c>
+      <c r="H12" s="42">
+        <v>-126</v>
+      </c>
+      <c r="I12" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>558</v>
+      </c>
+      <c r="H13" s="42">
+        <v>-126</v>
+      </c>
+      <c r="I13" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>554</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="42">
+        <v>-126</v>
+      </c>
+      <c r="I14" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H15" s="42">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I15" s="42">
+        <v>49.070500000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H16" s="42">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I16" s="42">
+        <v>49.070500000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>543</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H17" s="42">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I17" s="42">
+        <v>49.070500000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="42">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I18" s="42">
+        <v>49.070500000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>587</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="42">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I19" s="42">
+        <v>49.070500000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>595</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>558</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>594</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="H20" s="42">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I20" s="42">
+        <v>49.070500000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H21" s="42">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I21" s="42">
+        <v>49.070500000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="H22" s="42">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I22" s="42">
+        <v>49.070500000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="H23" s="42">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I23" s="42">
+        <v>49.070500000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H24" s="42">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I24" s="42">
+        <v>49.070500000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>541</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H25" s="42">
+        <v>-8.2502999999999993</v>
+      </c>
+      <c r="I25" s="42">
+        <v>49.070500000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>555</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>597</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H26" s="42">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="I26" s="42">
+        <v>50.134700000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
+        <v>555</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="H27" s="42">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="I27" s="42">
+        <v>50.134700000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>536</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="H28" s="42">
+        <v>-176.1395</v>
+      </c>
+      <c r="I28" s="42">
+        <v>56.907299999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
+        <v>536</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="H29" s="42">
+        <v>-176.1395</v>
+      </c>
+      <c r="I29" s="42">
+        <v>56.907299999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
+        <v>536</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H30" s="42">
+        <v>-176.1395</v>
+      </c>
+      <c r="I30" s="42">
+        <v>56.907299999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>550</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="H31" s="42">
+        <v>-144</v>
+      </c>
+      <c r="I31" s="42">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="H32" s="42">
+        <v>-144</v>
+      </c>
+      <c r="I32" s="42">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="H33" s="42">
+        <v>-144</v>
+      </c>
+      <c r="I33" s="42">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H34" s="42">
+        <v>-144</v>
+      </c>
+      <c r="I34" s="42">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>554</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="42">
+        <v>-144</v>
+      </c>
+      <c r="I35" s="42">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>601</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" s="42">
+        <v>-144</v>
+      </c>
+      <c r="I36" s="42">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>541</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H37" s="42">
+        <v>-12.0876</v>
+      </c>
+      <c r="I37" s="42">
+        <v>40.482999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>602</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H38" s="42">
+        <v>11.3004</v>
+      </c>
+      <c r="I38" s="42">
+        <v>56.951999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="H39" s="42">
+        <v>11.3004</v>
+      </c>
+      <c r="I39" s="42">
+        <v>56.951999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
+        <v>551</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H40" s="42">
+        <v>-50</v>
+      </c>
+      <c r="I40" s="42">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
+        <v>551</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G41" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="H41" s="42">
+        <v>-50</v>
+      </c>
+      <c r="I41" s="42">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>587</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>550</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="H42" s="42">
+        <v>3.5156000000000001</v>
+      </c>
+      <c r="I42" s="42">
+        <v>56.511000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H43" s="42">
+        <v>3.5156000000000001</v>
+      </c>
+      <c r="I43" s="42">
+        <v>56.511000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>602</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H44" s="42">
+        <v>3.5156000000000001</v>
+      </c>
+      <c r="I44" s="42">
+        <v>56.511000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G45" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="H45" s="42">
+        <v>3.5156000000000001</v>
+      </c>
+      <c r="I45" s="42">
+        <v>56.511000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>587</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G46" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" s="42">
+        <v>3.5156000000000001</v>
+      </c>
+      <c r="I46" s="42">
+        <v>56.511000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F47" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G47" s="42" t="s">
+        <v>549</v>
+      </c>
+      <c r="H47" s="42">
+        <v>3.5156000000000001</v>
+      </c>
+      <c r="I47" s="42">
+        <v>56.511000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>604</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="G48" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="H48" s="42">
+        <v>-70</v>
+      </c>
+      <c r="I48" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G49" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49" s="42">
+        <v>-70</v>
+      </c>
+      <c r="I49" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G50" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H50" s="42">
+        <v>12</v>
+      </c>
+      <c r="I50" s="42">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>587</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="H51" s="42">
+        <v>12</v>
+      </c>
+      <c r="I51" s="42">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E52" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F52" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G52" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H52" s="42">
+        <v>12</v>
+      </c>
+      <c r="I52" s="42">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H53" s="42">
+        <v>12</v>
+      </c>
+      <c r="I53" s="42">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="H54" s="42">
+        <v>12</v>
+      </c>
+      <c r="I54" s="42">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="42" t="s">
+        <v>546</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>602</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H55" s="42">
+        <v>9.9314999999999998</v>
+      </c>
+      <c r="I55" s="42">
+        <v>58.3523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="42" t="s">
+        <v>546</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="H56" s="42">
+        <v>9.9314999999999998</v>
+      </c>
+      <c r="I56" s="42">
+        <v>58.3523</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="42" t="s">
+        <v>544</v>
+      </c>
+      <c r="B57" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F57" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="H57" s="42">
+        <v>-76</v>
+      </c>
+      <c r="I57" s="42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="B58" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>543</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F58" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G58" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="H58" s="42">
+        <v>155</v>
+      </c>
+      <c r="I58" s="42">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="42" t="s">
+        <v>542</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>541</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G59" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="H59" s="42">
+        <v>-45</v>
+      </c>
+      <c r="I59" s="42">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="42" t="s">
+        <v>542</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>541</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F60" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="G60" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="H60" s="42">
+        <v>-45</v>
+      </c>
+      <c r="I60" s="42">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>539</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>538</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>607</v>
+      </c>
+      <c r="F61" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G61" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H61" s="42">
+        <v>-125.9066</v>
+      </c>
+      <c r="I61" s="42">
+        <v>49.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="E62" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="F62" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G62" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="H62" s="42">
+        <v>-123.87</v>
+      </c>
+      <c r="I62" s="42">
+        <v>49.36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F63" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="G63" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H63" s="42">
+        <v>-144</v>
+      </c>
+      <c r="I63" s="42">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E64" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F64" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G64" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="H64" s="42">
+        <v>-144</v>
+      </c>
+      <c r="I64" s="42">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="42" t="s">
+        <v>536</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E65" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F65" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G65" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H65" s="42">
+        <v>-176.1395</v>
+      </c>
+      <c r="I65" s="42">
+        <v>56.907299999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>533</v>
+      </c>
+      <c r="E66" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F66" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G66" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H66" s="42">
+        <v>-152</v>
+      </c>
+      <c r="I66" s="42">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D67" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="E67" s="46" t="s">
+        <v>608</v>
+      </c>
+      <c r="F67" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G67" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="H67" s="42">
+        <v>-147.09</v>
+      </c>
+      <c r="I67" s="42">
+        <v>60.69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="D68" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="E68" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F68" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="G68" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="H68" s="42">
+        <v>-152</v>
+      </c>
+      <c r="I68" s="42">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>525</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E69" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F69" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G69" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H69" s="42">
+        <v>-123.87</v>
+      </c>
+      <c r="I69" s="42">
+        <v>49.36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="F70" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G70" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H70" s="42">
+        <v>-125.9066</v>
+      </c>
+      <c r="I70" s="42">
+        <v>49.15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>572</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>554</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>573</v>
+      </c>
+      <c r="E71" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F71" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G71" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="H71" s="42">
+        <v>-12.0876</v>
+      </c>
+      <c r="I71" s="42">
+        <v>40.482999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="42" t="s">
+        <v>578</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>574</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="F72" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G72" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="H72" s="42">
+        <v>80</v>
+      </c>
+      <c r="I72" s="42">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="42" t="s">
+        <v>579</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>574</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="F73" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G73" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="H73" s="42">
+        <v>-10</v>
+      </c>
+      <c r="I73" s="42">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="B74" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="C74" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="E74" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="F74" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G74" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="H74" s="42">
+        <v>140</v>
+      </c>
+      <c r="I74" s="42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="C75" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>520</v>
+      </c>
+      <c r="F75" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G75" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="H75" s="42">
+        <v>140</v>
+      </c>
+      <c r="I75" s="42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="42" t="s">
+        <v>561</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="E76" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="F76" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G76" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="H76" s="42">
+        <v>19.863299999999999</v>
+      </c>
+      <c r="I76" s="42">
+        <v>58.488</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B77" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="C77" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="D77" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="E77" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="F77" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G77" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="H77" s="42">
+        <v>-120.82</v>
+      </c>
+      <c r="I77" s="42">
+        <v>47.45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="47" t="s">
+        <v>609</v>
+      </c>
+      <c r="B78" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="47" t="s">
+        <v>525</v>
+      </c>
+      <c r="D78" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="E78" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="F78" s="47" t="s">
+        <v>519</v>
+      </c>
+      <c r="G78" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="H78" s="42">
+        <v>-61.75</v>
+      </c>
+      <c r="I78" s="42">
+        <v>48.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -25386,6 +26210,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C7DF4436C2BC84E9ABCBE3322F692CD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be62b8fec667516e8fb42a365cb150e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -25557,32 +26390,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{006CA9B9-CD5F-42FA-AEB9-AB45473197E8}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E59FF985-1183-4834-8086-C77161FBE6F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86A604CF-D66D-41E2-875C-EE204A49F755}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25598,12 +26430,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E59FF985-1183-4834-8086-C77161FBE6F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>